--- a/RAW2/Soil_R.xlsx
+++ b/RAW2/Soil_R.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniumonsac-my.sharepoint.com/personal/151201_umons_ac_be/Documents/UMONS/MA2/MEMOIRE/Statistique/R/STAT-MEMOIRE/RAW1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniumonsac-my.sharepoint.com/personal/151201_umons_ac_be/Documents/UMONS/MA2/MEMOIRE/Statistique/R/STAT-MEMOIRE/RAW2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="8_{16C2DE22-5167-4D4C-A02D-D4A7C4A56550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA790E13-D48E-4BE1-A818-E3C0666FADCD}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{16C2DE22-5167-4D4C-A02D-D4A7C4A56550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF9DC86E-ECC6-4E92-A6E9-523DDE460713}"/>
   <bookViews>
-    <workbookView xWindow="468" yWindow="5268" windowWidth="17280" windowHeight="8964" xr2:uid="{ED16C615-2DF0-442E-9261-D5D8A80DE51C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ED16C615-2DF0-442E-9261-D5D8A80DE51C}"/>
   </bookViews>
   <sheets>
     <sheet name="R" sheetId="1" r:id="rId1"/>
@@ -649,17 +649,17 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="28.3984375" customWidth="1"/>
-    <col min="2" max="12" width="14.3984375" customWidth="1"/>
-    <col min="13" max="13" width="25.3984375" customWidth="1"/>
-    <col min="14" max="14" width="24.59765625" customWidth="1"/>
-    <col min="15" max="15" width="26.8984375" customWidth="1"/>
-    <col min="16" max="16" width="21.59765625" customWidth="1"/>
+    <col min="1" max="1" width="28.375" customWidth="1"/>
+    <col min="2" max="12" width="14.375" customWidth="1"/>
+    <col min="13" max="13" width="25.375" customWidth="1"/>
+    <col min="14" max="14" width="24.625" customWidth="1"/>
+    <col min="15" max="15" width="26.875" customWidth="1"/>
+    <col min="16" max="16" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1">
@@ -1276,7 +1276,7 @@
       <c r="M15" s="7"/>
       <c r="O15" s="7"/>
     </row>
-    <row r="16" spans="1:16" ht="16.2" thickBot="1">
+    <row r="16" spans="1:16" ht="16.5" thickBot="1">
       <c r="A16" s="33" t="s">
         <v>7</v>
       </c>
@@ -1626,6 +1626,42 @@
     <row r="34" spans="1:16" ht="15" customHeight="1"/>
   </sheetData>
   <conditionalFormatting sqref="B2:B16">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C16">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D16">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E16">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1637,7 +1673,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C16">
+  <conditionalFormatting sqref="F2:F16">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -1649,7 +1685,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D16">
+  <conditionalFormatting sqref="G2:G16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -1661,7 +1697,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E16">
+  <conditionalFormatting sqref="H2:H16">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1673,7 +1709,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F16">
+  <conditionalFormatting sqref="I2:I16">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1685,7 +1721,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G16">
+  <conditionalFormatting sqref="J2:J16">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1697,7 +1733,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H16">
+  <conditionalFormatting sqref="K1:K16">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1709,7 +1745,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I16">
+  <conditionalFormatting sqref="L1:L16">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/RAW2/Soil_R.xlsx
+++ b/RAW2/Soil_R.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="54" documentId="8_{16C2DE22-5167-4D4C-A02D-D4A7C4A56550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF9DC86E-ECC6-4E92-A6E9-523DDE460713}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ED16C615-2DF0-442E-9261-D5D8A80DE51C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ED16C615-2DF0-442E-9261-D5D8A80DE51C}"/>
   </bookViews>
   <sheets>
     <sheet name="R" sheetId="1" r:id="rId1"/>
@@ -649,7 +649,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75"/>
